--- a/raftaar-core/assets/testdata.xlsx
+++ b/raftaar-core/assets/testdata.xlsx
@@ -58,19 +58,19 @@
     <t>12</t>
   </si>
   <si>
-    <t>Data Row 1</t>
-  </si>
-  <si>
-    <t>Data Row 2</t>
-  </si>
-  <si>
-    <t>Data Row 3</t>
+    <t>Data for Scenario #1</t>
+  </si>
+  <si>
+    <t>Data for Scenario #2</t>
+  </si>
+  <si>
+    <t>Data for Scenario #3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,6 +246,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -281,6 +298,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,7 +495,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/raftaar-core/assets/testdata.xlsx
+++ b/raftaar-core/assets/testdata.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CalculateInterest" sheetId="12" r:id="rId1"/>
+    <sheet name="EmployerDetails" sheetId="13" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>sl</t>
   </si>
@@ -65,6 +66,54 @@
   </si>
   <si>
     <t>Data for Scenario #3</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>EIN</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>Company Blue</t>
+  </si>
+  <si>
+    <t>Company Red</t>
+  </si>
+  <si>
+    <t>Company Orange</t>
+  </si>
+  <si>
+    <t>998877661</t>
+  </si>
+  <si>
+    <t>998833221</t>
+  </si>
+  <si>
+    <t>883377441</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Marriot</t>
+  </si>
+  <si>
+    <t>Hen</t>
+  </si>
+  <si>
+    <t>Zen</t>
   </si>
 </sst>
 </file>
@@ -493,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -580,4 +629,109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>